--- a/techniqo/login/users.xlsx
+++ b/techniqo/login/users.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -424,16 +424,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="39" customWidth="1" min="1" max="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -448,12 +445,22 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ip</t>
+          <t>ip</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>logged in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ans</t>
         </is>
       </c>
     </row>
@@ -465,12 +472,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12darshang4</t>
+          <t>12dre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>192.168.0.105</t>
+          <t>127.0.0.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,114 +485,14 @@
           <t>yes</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>rakesh@gmail.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12asd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>127.0.0.1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>darshan124@gmail.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12darshang4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>192.168.0.105</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>darshu@gmail.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>12dre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>127.0.0.1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>priyanshubhos@gmail.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>bhos</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>192.168.0.105</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>priyanshulund@gmail.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>lund</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>192.168.0.105</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>asd</t>
         </is>
       </c>
     </row>

--- a/techniqo/login/users.xlsx
+++ b/techniqo/login/users.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -424,13 +424,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="39" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -445,22 +448,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>Ip</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>logged in</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ans</t>
         </is>
       </c>
     </row>
@@ -472,27 +465,127 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>12darshang4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>192.168.0.105</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>rakesh@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12asd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>darshan124@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12darshang4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>192.168.0.105</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>darshu@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>12dre</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>127.0.0.1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>asd</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>priyanshubhos@gmail.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bhos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>192.168.0.105</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>priyanshulund@gmail.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lund</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>192.168.0.105</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
     </row>

--- a/techniqo/login/users.xlsx
+++ b/techniqo/login/users.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
@@ -482,17 +482,81 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lwlw@gam</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8866016045</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>divine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>techniqo2020@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DrugsdoDrugsdo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>asd</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>divine</t>
         </is>
       </c>
     </row>

--- a/techniqo/login/users.xlsx
+++ b/techniqo/login/users.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
@@ -482,7 +482,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DrugsdoDrugsdo</t>
+          <t>12gupta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,6 +557,38 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>divine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>siri@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12siri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>alexa</t>
         </is>
       </c>
     </row>
